--- a/数据整理/stocks/港股/02202-万科企业.xlsx
+++ b/数据整理/stocks/港股/02202-万科企业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,79 +22,127 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>010864</t>
+  </si>
+  <si>
+    <t>010865</t>
+  </si>
+  <si>
+    <t>501303</t>
+  </si>
+  <si>
     <t>501067</t>
   </si>
   <si>
+    <t>004996</t>
+  </si>
+  <si>
+    <t>160922</t>
+  </si>
+  <si>
     <t>501068</t>
   </si>
   <si>
-    <t>501303</t>
-  </si>
-  <si>
-    <t>004996</t>
-  </si>
-  <si>
-    <t>010864</t>
-  </si>
-  <si>
-    <t>010865</t>
-  </si>
-  <si>
-    <t>160922</t>
+    <t>泓德卓远混合A</t>
+  </si>
+  <si>
+    <t>泓德卓远混合C</t>
+  </si>
+  <si>
+    <t>广发港股通恒生综合中型股指数(LOF)A</t>
   </si>
   <si>
     <t>招商富时中国A-H50指数（LOF）A</t>
   </si>
   <si>
+    <t>广发港股通恒生综合中型股指数(LOF)C</t>
+  </si>
+  <si>
+    <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+  </si>
+  <si>
     <t>招商富时中国A-H50指数（LOF）C</t>
   </si>
   <si>
-    <t>广发港股通恒生综合中型股指数(LOF)A</t>
-  </si>
-  <si>
-    <t>广发港股通恒生综合中型股指数(LOF)C</t>
-  </si>
-  <si>
-    <t>泓德卓远混合A</t>
-  </si>
-  <si>
-    <t>泓德卓远混合C</t>
-  </si>
-  <si>
-    <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+    <t>66.11</t>
+  </si>
+  <si>
+    <t>20.99</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>93.78</t>
+  </si>
+  <si>
+    <t>93.69</t>
   </si>
   <si>
     <t>94.18</t>
   </si>
   <si>
-    <t>93.69</t>
-  </si>
-  <si>
-    <t>93.78</t>
-  </si>
-  <si>
     <t>93.53</t>
   </si>
   <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
     <t>2.62</t>
   </si>
   <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
     <t>1.11</t>
+  </si>
+  <si>
+    <t>2.3138</t>
+  </si>
+  <si>
+    <t>0.7346</t>
+  </si>
+  <si>
+    <t>0.0068</t>
+  </si>
+  <si>
+    <t>0.0055</t>
+  </si>
+  <si>
+    <t>0.0023</t>
+  </si>
+  <si>
+    <t>0.0011</t>
+  </si>
+  <si>
+    <t>0.0010</t>
   </si>
 </sst>
 </file>
@@ -452,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,145 +522,193 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02202-万科企业.xlsx
+++ b/数据整理/stocks/港股/02202-万科企业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02202-万科企业.xlsx
+++ b/数据整理/stocks/港股/02202-万科企业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>3.07</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02202-万科企业.xlsx
+++ b/数据整理/stocks/港股/02202-万科企业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.77</v>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1281,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.07</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02202-万科企业.xlsx
+++ b/数据整理/stocks/港股/02202-万科企业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.77</v>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.07</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02202-万科企业.xlsx
+++ b/数据整理/stocks/港股/02202-万科企业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.84</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.13</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.77</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.07</v>
       </c>
     </row>
@@ -566,6 +583,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012609</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6669</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1001,7 +1758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1323,7 +2080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,7 +2250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1701,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02202-万科企业.xlsx
+++ b/数据整理/stocks/港股/02202-万科企业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>9.41</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>1.84</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>3.13</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.77</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.07</v>
       </c>
     </row>
@@ -583,6 +600,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2873</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015978</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015979</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1322,7 +2155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1758,7 +2591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2080,7 +2913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2250,7 +3083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2458,7 +3291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
